--- a/PRODUTOS/Saudaveis/Saudaveis - Adocantes.xlsx
+++ b/PRODUTOS/Saudaveis/Saudaveis - Adocantes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Adoçante Líquido Adocyl Sacarina 100ml</t>
+          <t>Adoçante Stevia Linea Em Pó 50 Envelopes</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0b39804-2f06-4d8c-a313-551d036eeb75.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b13842bb-d38a-4ab1-9eff-111a8eb028d2.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896001282896</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Adoçante Liquido Zero-cal Sucralose 100ml</t>
+          <t>Adoçante Líquido Assugrin 200ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2aaad07b-8614-4beb-a3de-84dd7733b166.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30d1a6d1-6306-4af9-9ba0-5a491ba0b07e.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896569405744</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Adoçante Líquido Zero-cal Sacarina 200ml</t>
+          <t>Adoçante Líquido Assugrin 100ml</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d85290dc-2b03-4261-8fe3-be10fb76246e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c5b1399-1205-4f39-b88c-6620c59e2f2b.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896569405737</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Adoçante Líquido Assugrin 200ml</t>
+          <t>Adoçante Líquido Linea Sweet Natural 25ml</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30d1a6d1-6306-4af9-9ba0-5a491ba0b07e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bba7ce39-1bcf-4672-ae85-ef24ba9d2f6e.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896001282346</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Adoçante Líquido Linea Sucralose Com 75ml</t>
+          <t>Adoçante Culinário Em Pó Linea Eritritol 300g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 47,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/46050ddb-46db-4389-a4aa-b84726ebd430.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a8e8b28-a314-4ac0-9ada-423e6ae523ff.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896001200012</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Adoçante Líquido Linea 100% Stevia 60ml</t>
+          <t>Adoçante Líquido Zero-cal Sacarina 200ml</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a993b806-5a1c-45d6-842a-78164f0054a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d85290dc-2b03-4261-8fe3-be10fb76246e.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896094910959</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Adocante Liq Uniao 65ml Sucralose</t>
+          <t>Adoçante Líquido Linea 100% Stevia 60ml</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34fda020-f8d1-4e07-b0af-aa9319637c55.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a993b806-5a1c-45d6-842a-78164f0054a9.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896001210103</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Adoçante Zero-cal Sucralose 50 Envelopes</t>
+          <t>Adoçante Dietético Em Pó Linea Sucralose Com 50 Envelopes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/019cd7ae-4a17-4c47-9ae3-32dd3cb98087.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b18a60f1-b87f-4485-b17d-9c6d2db95625.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896001250635</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Adoçante Dietético Em Pó Linea Sucralose Com 50 Envelopes</t>
+          <t>Adoçante Liquido Zero-cal Sucralose 100ml</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b18a60f1-b87f-4485-b17d-9c6d2db95625.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2aaad07b-8614-4beb-a3de-84dd7733b166.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896094906624</t>
         </is>
       </c>
     </row>
@@ -717,6 +767,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/579a1a18-bbb7-44fb-97f0-675aa509e71f.jpg</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896292010000</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Adoçante Stevia Linea Em Pó 50 Envelopes</t>
+          <t>Adoçante Em Pó Sucralose Diet União 50 Envelopes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b13842bb-d38a-4ab1-9eff-111a8eb028d2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1870f22a-f3f6-45e0-8323-82c7f68bc2c4.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891910030316</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Adoçante Em Pó Xilitol Dacolônia Pouch 200g</t>
+          <t>Adoçante Líquido Linea Sucralose Com 75ml</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/68f0aa87-c3a8-4d65-a356-644e8bd5c2a7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/46050ddb-46db-4389-a4aa-b84726ebd430.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896001250635</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Adoçante Em Pó Sucralose Diet União 50 Envelopes</t>
+          <t>Adoçante Líquido Zero Cal Aspartame 100ml</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1870f22a-f3f6-45e0-8323-82c7f68bc2c4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c03d9fba-6e6f-4727-a613-bbf053adbd1d.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896094911000</t>
         </is>
       </c>
     </row>
@@ -812,179 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Adoçante Líquido Assugrin 100ml</t>
+          <t>Adoçante Líquido Adocyl Sacarina 100ml</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c5b1399-1205-4f39-b88c-6620c59e2f2b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Adocantes</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Adoçante Líquido Zero Cal Aspartame 100ml</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c03d9fba-6e6f-4727-a613-bbf053adbd1d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Adocantes</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Adoçante Tal E Qual Forno E Fogão Em Pó 120g</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9acce07d-9d5e-40c0-b5b0-7f84ed25bad5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Adocantes</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Adoçante Líquido Linea Sweet Natural 25ml</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bba7ce39-1bcf-4672-ae85-ef24ba9d2f6e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Adocantes</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Adoçante Culinário Em Pó Linea Eritritol 300g</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>R$ 47,99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a8e8b28-a314-4ac0-9ada-423e6ae523ff.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Adocantes</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Adoçante Forno E Fogão Tal &amp; Qual Em Pó 60g</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04345c9c-c0d4-425a-b120-4f6b08fcee5c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Saudaveis</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Adocantes</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Adoçante Liq Lowcucar 80ml 100% Stevia</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae1d344e-6eb9-41e8-bf0e-b31aca1fea13.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0b39804-2f06-4d8c-a313-551d036eeb75.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891104393104</t>
         </is>
       </c>
     </row>
